--- a/Laporan_Tren_Efisiensi_Bulanan_Fix.xlsx
+++ b/Laporan_Tren_Efisiensi_Bulanan_Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC110AD-F027-40AF-AAB7-7455B9CDAEB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F8DE1-8BB5-4AC2-B9B8-8CC140EA1B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1271,11 +1271,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R190" sqref="R190"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J196" sqref="J196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1335,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1428,7 +1429,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1757,7 +1758,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1898,7 +1899,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1945,7 +1946,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1992,7 +1993,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2039,7 +2040,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2086,7 +2087,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2133,7 +2134,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2228,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2368,7 +2369,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2556,7 +2557,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -2650,7 +2651,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2744,7 +2745,7 @@
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2885,7 +2886,7 @@
         <v>11.66</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2932,7 +2933,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2979,7 +2980,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3026,7 +3027,7 @@
         <v>10.42</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>23.74</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -3120,7 +3121,7 @@
         <v>14.54</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>12.73</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -3261,7 +3262,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3308,7 +3309,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -3355,7 +3356,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>17.940000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>12.73</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -3637,7 +3638,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>10.27</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>12.17</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -3825,7 +3826,7 @@
         <v>11.65</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>20.170000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -3966,7 +3967,7 @@
         <v>9.64</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -4013,7 +4014,7 @@
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -4154,7 +4155,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -4248,7 +4249,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -4342,7 +4343,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4389,7 +4390,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -4483,7 +4484,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -4530,7 +4531,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -4577,7 +4578,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -4624,7 +4625,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4718,7 +4719,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -4812,7 +4813,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -4906,7 +4907,7 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -5094,7 +5095,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>77</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>77</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -5329,7 +5330,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>77</v>
       </c>
@@ -5376,7 +5377,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>77</v>
       </c>
@@ -5423,7 +5424,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -5470,7 +5471,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>77</v>
       </c>
@@ -5517,7 +5518,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>77</v>
       </c>
@@ -5564,7 +5565,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -5611,7 +5612,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>148</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>148</v>
       </c>
@@ -5705,7 +5706,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>148</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>148</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>156</v>
       </c>
@@ -8055,7 +8056,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -8102,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -8149,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -8196,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -8243,7 +8244,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -8290,7 +8291,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -8337,7 +8338,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -8384,7 +8385,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -8478,7 +8479,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -8525,7 +8526,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -8572,7 +8573,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -8666,7 +8667,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -8713,7 +8714,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -8760,7 +8761,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -8807,7 +8808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -8854,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -8901,7 +8902,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -8948,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -8995,7 +8996,7 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -9042,7 +9043,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -9089,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -9136,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>45</v>
       </c>
@@ -9183,7 +9184,7 @@
         <v>9.86</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>45</v>
       </c>
@@ -9230,7 +9231,7 @@
         <v>10.119999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -9277,7 +9278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>45</v>
       </c>
@@ -9324,7 +9325,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>45</v>
       </c>
@@ -9371,7 +9372,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>45</v>
       </c>
@@ -9418,7 +9419,7 @@
         <v>12.03</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>45</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>45</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>77</v>
       </c>
@@ -9559,7 +9560,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>77</v>
       </c>
@@ -9606,7 +9607,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>77</v>
       </c>
@@ -9653,7 +9654,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>77</v>
       </c>
@@ -9700,7 +9701,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>77</v>
       </c>
@@ -9747,7 +9748,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>77</v>
       </c>
@@ -9794,7 +9795,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>77</v>
       </c>
@@ -9841,7 +9842,7 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>148</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>148</v>
       </c>
@@ -9935,7 +9936,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>148</v>
       </c>
@@ -9982,7 +9983,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>148</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>148</v>
       </c>
@@ -10076,7 +10077,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>148</v>
       </c>
@@ -10123,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>15</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -10217,7 +10218,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -10264,7 +10265,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -10304,14 +10305,14 @@
       <c r="M192">
         <v>0</v>
       </c>
-      <c r="N192">
+      <c r="N192" s="2">
         <v>1.73</v>
       </c>
       <c r="O192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>77</v>
       </c>
@@ -10359,7 +10360,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O193" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O193" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="MEMBURUK (Makin Boros)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Laporan_Tren_Efisiensi_Bulanan_Fix.xlsx
+++ b/Laporan_Tren_Efisiensi_Bulanan_Fix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Downloads\SPIL\bbm\Analisa BBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F8DE1-8BB5-4AC2-B9B8-8CC140EA1B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80474D61-38F9-4566-BB63-2D68711F38E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1271,12 +1271,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J196" sqref="J196"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q168" sqref="Q168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1283,7 @@
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" hidden="1" customWidth="1"/>
     <col min="5" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1335,7 +1334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1382,7 +1381,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1429,7 +1428,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>2.86</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1523,7 +1522,7 @@
         <v>3.85</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1570,7 +1569,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1617,7 +1616,7 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>2.71</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1758,7 +1757,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1805,7 +1804,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>3.57</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1899,7 +1898,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1946,7 +1945,7 @@
         <v>2.37</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1993,7 +1992,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2040,7 +2039,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2087,7 +2086,7 @@
         <v>3.96</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -2134,7 +2133,7 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>6.88</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -2275,7 +2274,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>5.17</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2369,7 +2368,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -2463,7 +2462,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2510,7 +2509,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -2557,7 +2556,7 @@
         <v>8.02</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>6.82</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>9.92</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2698,7 +2697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>9.3800000000000008</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>12.34</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2886,7 +2885,7 @@
         <v>11.66</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -2933,7 +2932,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -2980,7 +2979,7 @@
         <v>18.18</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>10.42</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -3074,7 +3073,7 @@
         <v>23.74</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -3121,7 +3120,7 @@
         <v>14.54</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>20.16</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>12.73</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>15.33</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -3356,7 +3355,7 @@
         <v>18.510000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -3403,7 +3402,7 @@
         <v>17.940000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>12.73</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>11.57</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3591,7 +3590,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>45</v>
       </c>
@@ -3638,7 +3637,7 @@
         <v>15.25</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -3685,7 +3684,7 @@
         <v>10.27</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -3732,7 +3731,7 @@
         <v>12.17</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -3826,7 +3825,7 @@
         <v>11.65</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -3873,7 +3872,7 @@
         <v>23.68</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>45</v>
       </c>
@@ -3920,7 +3919,7 @@
         <v>20.170000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>45</v>
       </c>
@@ -3967,7 +3966,7 @@
         <v>9.64</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>8.8699999999999992</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -4061,7 +4060,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>77</v>
       </c>
@@ -4108,7 +4107,7 @@
         <v>4.78</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>77</v>
       </c>
@@ -4155,7 +4154,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>3.43</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4296,7 +4295,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -4343,7 +4342,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4390,7 +4389,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -4437,7 +4436,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -4484,7 +4483,7 @@
         <v>3.94</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>77</v>
       </c>
@@ -4531,7 +4530,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -4578,7 +4577,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -4625,7 +4624,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -4672,7 +4671,7 @@
         <v>4.67</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -4719,7 +4718,7 @@
         <v>4.09</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>6.92</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>77</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
@@ -4907,7 +4906,7 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>5.82</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -5001,7 +5000,7 @@
         <v>5.93</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>77</v>
       </c>
@@ -5095,7 +5094,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>77</v>
       </c>
@@ -5142,7 +5141,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>77</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>77</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>77</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>4.82</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>77</v>
       </c>
@@ -5330,7 +5329,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>77</v>
       </c>
@@ -5377,7 +5376,7 @@
         <v>7.24</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>77</v>
       </c>
@@ -5424,7 +5423,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>77</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>3.61</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>77</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>3.73</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>148</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>3.45</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>148</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>5.92</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>148</v>
       </c>
@@ -5753,7 +5752,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>148</v>
       </c>
@@ -5800,7 +5799,7 @@
         <v>2.88</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>148</v>
       </c>
@@ -5847,7 +5846,7 @@
         <v>4.4800000000000004</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>156</v>
       </c>
@@ -8056,7 +8055,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -8103,7 +8102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -8150,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -8197,7 +8196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -8244,7 +8243,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -8291,7 +8290,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -8338,7 +8337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -8385,7 +8384,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -8479,7 +8478,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -8526,7 +8525,7 @@
         <v>3.39</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>2.23</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -8620,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -8667,7 +8666,7 @@
         <v>4.91</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -8714,7 +8713,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -8808,7 +8807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -8855,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -8902,7 +8901,7 @@
         <v>3.59</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -8949,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -8996,7 +8995,7 @@
         <v>7.21</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -9090,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -9137,7 +9136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>45</v>
       </c>
@@ -9184,7 +9183,7 @@
         <v>9.86</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>45</v>
       </c>
@@ -9231,7 +9230,7 @@
         <v>10.119999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>45</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>45</v>
       </c>
@@ -9325,7 +9324,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>45</v>
       </c>
@@ -9372,7 +9371,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>45</v>
       </c>
@@ -9419,7 +9418,7 @@
         <v>12.03</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>45</v>
       </c>
@@ -9466,7 +9465,7 @@
         <v>10.029999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>45</v>
       </c>
@@ -9513,7 +9512,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>77</v>
       </c>
@@ -9560,7 +9559,7 @@
         <v>2.77</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>77</v>
       </c>
@@ -9607,7 +9606,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>77</v>
       </c>
@@ -9654,7 +9653,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>77</v>
       </c>
@@ -9701,7 +9700,7 @@
         <v>3.64</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>77</v>
       </c>
@@ -9748,7 +9747,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>77</v>
       </c>
@@ -9795,7 +9794,7 @@
         <v>3.31</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>77</v>
       </c>
@@ -9842,7 +9841,7 @@
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>148</v>
       </c>
@@ -9889,7 +9888,7 @@
         <v>3.23</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>148</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>148</v>
       </c>
@@ -9983,7 +9982,7 @@
         <v>5.38</v>
       </c>
     </row>
-    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>148</v>
       </c>
@@ -10030,7 +10029,7 @@
         <v>4.41</v>
       </c>
     </row>
-    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>148</v>
       </c>
@@ -10077,7 +10076,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>148</v>
       </c>
@@ -10124,7 +10123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>15</v>
       </c>
@@ -10171,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>15</v>
       </c>
@@ -10218,7 +10217,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>15</v>
       </c>
@@ -10265,7 +10264,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>15</v>
       </c>
@@ -10299,7 +10298,7 @@
       <c r="K192">
         <v>0</v>
       </c>
-      <c r="L192">
+      <c r="L192" s="2">
         <v>13.25</v>
       </c>
       <c r="M192">
@@ -10312,7 +10311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>77</v>
       </c>
@@ -10360,13 +10359,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O193" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="MEMBURUK (Makin Boros)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:O193" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>